--- a/div_map_categories.xlsx
+++ b/div_map_categories.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="21075" windowHeight="9780" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="21075" windowHeight="9780" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="documentation" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,121 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="292">
+  <si>
+    <t>Documentation for the Diversity Map Categories Sheet</t>
+  </si>
+  <si>
+    <t>Table Names and Descriptions</t>
+  </si>
+  <si>
+    <t>Source: 2016-2020 5-year American Community Survey</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Variable Description</t>
+  </si>
+  <si>
+    <t>Table Name</t>
+  </si>
+  <si>
+    <t>Universe</t>
+  </si>
+  <si>
+    <t>B05002</t>
+  </si>
+  <si>
+    <t>pob</t>
+  </si>
+  <si>
+    <t>Place of Birth</t>
+  </si>
+  <si>
+    <t>Place of Birth by Nativity and Citizenship Status</t>
+  </si>
+  <si>
+    <t>Total Population</t>
+  </si>
+  <si>
+    <t>B05006</t>
+  </si>
+  <si>
+    <t>Place of Birth for the Foreign-Born Population in the United Sates</t>
+  </si>
+  <si>
+    <t>Foreign born population excluding population born at sea</t>
+  </si>
+  <si>
+    <t>B15002</t>
+  </si>
+  <si>
+    <t>educ</t>
+  </si>
+  <si>
+    <t>Educational Attainment</t>
+  </si>
+  <si>
+    <t>Sex by Educational Attainment for the population 25 Years and Over</t>
+  </si>
+  <si>
+    <t>Population 25 years and over</t>
+  </si>
+  <si>
+    <t>B01001</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Sex by Age</t>
+  </si>
+  <si>
+    <t>B19001</t>
+  </si>
+  <si>
+    <t>hh_income</t>
+  </si>
+  <si>
+    <t>Household Income</t>
+  </si>
+  <si>
+    <t>Household Income in the Past 12 months (in 2020 Inflation-adjusted dollars)</t>
+  </si>
+  <si>
+    <t>Households</t>
+  </si>
+  <si>
+    <t>B03002</t>
+  </si>
+  <si>
+    <t>race_ethnicity</t>
+  </si>
+  <si>
+    <t>Race and Ethnicity</t>
+  </si>
+  <si>
+    <t>Hispanic or Latino by Race</t>
+  </si>
+  <si>
+    <t>C02003</t>
+  </si>
+  <si>
+    <t>Detailed Race</t>
+  </si>
+  <si>
+    <t>Categories Sheet Descriptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explanation of color formatting in the categories sheet and variable </t>
+  </si>
   <si>
     <t>title</t>
   </si>
@@ -46,90 +160,6 @@
     <t>var_name_ending</t>
   </si>
   <si>
-    <t>pob</t>
-  </si>
-  <si>
-    <t>B05002</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Total:</t>
-  </si>
-  <si>
-    <t>nat_for</t>
-  </si>
-  <si>
-    <t>native</t>
-  </si>
-  <si>
-    <t>Native:</t>
-  </si>
-  <si>
-    <t>foreign-born</t>
-  </si>
-  <si>
-    <t>Foreign born:</t>
-  </si>
-  <si>
-    <t>us_regions</t>
-  </si>
-  <si>
-    <t>born in MA</t>
-  </si>
-  <si>
-    <t>Born in state of residence</t>
-  </si>
-  <si>
-    <t>Northeast</t>
-  </si>
-  <si>
-    <t>Midwest</t>
-  </si>
-  <si>
-    <t>South</t>
-  </si>
-  <si>
-    <t>West</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Born outside the United States:</t>
-  </si>
-  <si>
-    <t>continent</t>
-  </si>
-  <si>
-    <t>born in North America</t>
-  </si>
-  <si>
-    <t>Northern America</t>
-  </si>
-  <si>
-    <t>Oceania</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>Latin America</t>
-  </si>
-  <si>
-    <t>Asia</t>
-  </si>
-  <si>
-    <t>Europe</t>
-  </si>
-  <si>
-    <t>B05006</t>
-  </si>
-  <si>
     <t>foreign_born</t>
   </si>
   <si>
@@ -139,499 +169,10 @@
     <t>Northern Europe:</t>
   </si>
   <si>
-    <t>Western Europe</t>
-  </si>
-  <si>
-    <t>Western Europe:</t>
-  </si>
-  <si>
-    <t>Southern Europe</t>
-  </si>
-  <si>
-    <t>Southern Europe:</t>
-  </si>
-  <si>
-    <t>Eastern Europe</t>
-  </si>
-  <si>
-    <t>Eastern Europe:</t>
-  </si>
-  <si>
-    <t>Eastern Asia</t>
-  </si>
-  <si>
-    <t>Eastern Asia:</t>
-  </si>
-  <si>
-    <t>South Central Asia</t>
-  </si>
-  <si>
-    <t>South Central Asia:</t>
-  </si>
-  <si>
-    <t>South Eastern Asia</t>
-  </si>
-  <si>
-    <t>South Eastern Asia:</t>
-  </si>
-  <si>
-    <t>Western Asia</t>
-  </si>
-  <si>
-    <t>Western Asia:</t>
-  </si>
-  <si>
-    <t>Eastern Africa</t>
-  </si>
-  <si>
-    <t>Eastern Africa:</t>
-  </si>
-  <si>
-    <t>Middle Africa</t>
-  </si>
-  <si>
-    <t>Middle Africa:</t>
-  </si>
-  <si>
-    <t>Northern Africa</t>
-  </si>
-  <si>
-    <t>Northern Africa:</t>
-  </si>
-  <si>
-    <t>Southern Africa</t>
-  </si>
-  <si>
-    <t>Southern Africa:</t>
-  </si>
-  <si>
-    <t>Western Africa</t>
-  </si>
-  <si>
-    <t>Western Africa:</t>
-  </si>
-  <si>
-    <t>Oceania:</t>
-  </si>
-  <si>
-    <t>Caribbean</t>
-  </si>
-  <si>
-    <t>Caribbean:</t>
-  </si>
-  <si>
-    <t>Central America</t>
-  </si>
-  <si>
-    <t>Central America:</t>
-  </si>
-  <si>
-    <t>South America</t>
-  </si>
-  <si>
-    <t>South America:</t>
-  </si>
-  <si>
-    <t>North America</t>
-  </si>
-  <si>
-    <t>Northern America:</t>
-  </si>
-  <si>
-    <t>Other (native born)</t>
-  </si>
-  <si>
-    <t>educ</t>
-  </si>
-  <si>
-    <t>B15002</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>Less than High School</t>
-  </si>
-  <si>
-    <t>No schooling completed</t>
-  </si>
-  <si>
-    <t>Nursery to 4th grade</t>
-  </si>
-  <si>
-    <t>5th and 6th grade</t>
-  </si>
-  <si>
-    <t>7th and 8th grade</t>
-  </si>
-  <si>
-    <t>9th grade</t>
-  </si>
-  <si>
-    <t>10th grade</t>
-  </si>
-  <si>
-    <t>11th grade</t>
-  </si>
-  <si>
-    <t>12th grade, no diploma</t>
-  </si>
-  <si>
-    <t>High School/GED</t>
-  </si>
-  <si>
-    <t>High school graduate (includes equivalency)</t>
-  </si>
-  <si>
-    <t>Some College/Associates</t>
-  </si>
-  <si>
-    <t>Some college, less than 1 year</t>
-  </si>
-  <si>
-    <t>Some college, 1 or more years, no degree</t>
-  </si>
-  <si>
-    <t>Associate's degree</t>
-  </si>
-  <si>
-    <t>Bachelor's</t>
-  </si>
-  <si>
-    <t>Bachelor's degree</t>
-  </si>
-  <si>
-    <t>Masters or Higher</t>
-  </si>
-  <si>
-    <t>Master's degree</t>
-  </si>
-  <si>
-    <t>Professional school degree</t>
-  </si>
-  <si>
-    <t>Doctorate degree</t>
-  </si>
-  <si>
-    <t>hs</t>
-  </si>
-  <si>
-    <t>In High School</t>
-  </si>
-  <si>
-    <t>High School or Higher</t>
-  </si>
-  <si>
-    <t>higher_ed</t>
-  </si>
-  <si>
-    <t>Less than bach</t>
-  </si>
-  <si>
-    <t>Bachelor's or Higher</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>B01001</t>
-  </si>
-  <si>
-    <t>Under 5</t>
-  </si>
-  <si>
-    <t>Under 5 years</t>
-  </si>
-  <si>
-    <t>5 to 9</t>
-  </si>
-  <si>
-    <t>5 to 9 years</t>
-  </si>
-  <si>
-    <t>10 to 14</t>
-  </si>
-  <si>
-    <t>10 to 14 years</t>
-  </si>
-  <si>
-    <t>15 to 19</t>
-  </si>
-  <si>
-    <t>15 to 17 years</t>
-  </si>
-  <si>
-    <t>18 and 19 years</t>
-  </si>
-  <si>
-    <t>20 to 24</t>
-  </si>
-  <si>
-    <t>20 years</t>
-  </si>
-  <si>
-    <t>21 years</t>
-  </si>
-  <si>
-    <t>22 to 24 years</t>
-  </si>
-  <si>
-    <t>25 to 29</t>
-  </si>
-  <si>
-    <t>25 to 29 years</t>
-  </si>
-  <si>
-    <t>30 to 34</t>
-  </si>
-  <si>
-    <t>30 to 34 years</t>
-  </si>
-  <si>
-    <t>35 to 39</t>
-  </si>
-  <si>
-    <t>35 to 39 years</t>
-  </si>
-  <si>
-    <t>40 to 44</t>
-  </si>
-  <si>
-    <t>40 to 44 years</t>
-  </si>
-  <si>
-    <t>45 to 49</t>
-  </si>
-  <si>
-    <t>45 to 49 years</t>
-  </si>
-  <si>
-    <t>50 to 54</t>
-  </si>
-  <si>
-    <t>50 to 54 years</t>
-  </si>
-  <si>
-    <t>55 to 59</t>
-  </si>
-  <si>
-    <t>55 to 59 years</t>
-  </si>
-  <si>
-    <t>60 to 64</t>
-  </si>
-  <si>
-    <t>60 and 61 years</t>
-  </si>
-  <si>
-    <t>62 to 64 years</t>
-  </si>
-  <si>
-    <t>65 to 69</t>
-  </si>
-  <si>
-    <t>65 and 66 years</t>
-  </si>
-  <si>
-    <t>67 to 69 years</t>
-  </si>
-  <si>
-    <t>70 to 74</t>
-  </si>
-  <si>
-    <t>70 to 74 years</t>
-  </si>
-  <si>
-    <t>75 to 79</t>
-  </si>
-  <si>
-    <t>75 to 79 years</t>
-  </si>
-  <si>
-    <t>80 to 84</t>
-  </si>
-  <si>
-    <t>80 to 84 years</t>
-  </si>
-  <si>
-    <t>85 and over</t>
-  </si>
-  <si>
-    <t>85 years and over</t>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>young adult</t>
-  </si>
-  <si>
-    <t>adult</t>
-  </si>
-  <si>
-    <t>senior citizen</t>
-  </si>
-  <si>
-    <t>gens</t>
-  </si>
-  <si>
-    <t>genZ</t>
-  </si>
-  <si>
-    <t>millenial</t>
-  </si>
-  <si>
-    <t>genX</t>
-  </si>
-  <si>
-    <t>boomers</t>
-  </si>
-  <si>
-    <t>silent</t>
-  </si>
-  <si>
-    <t>hh_income</t>
-  </si>
-  <si>
-    <t>B19001</t>
-  </si>
-  <si>
-    <t>Less than $10,000</t>
-  </si>
-  <si>
-    <t>$10,000 to $14,999</t>
-  </si>
-  <si>
-    <t>$15,000 to $19,999</t>
-  </si>
-  <si>
-    <t>$20,000 to $24,999</t>
-  </si>
-  <si>
-    <t>$25,000 to $29,999</t>
-  </si>
-  <si>
-    <t>$30,000 to $34,999</t>
-  </si>
-  <si>
-    <t>$35,000 to $39,999</t>
-  </si>
-  <si>
-    <t>$40,000 to $44,999</t>
-  </si>
-  <si>
-    <t>$45,000 to $49,999</t>
-  </si>
-  <si>
-    <t>$50,000 to $59,999</t>
-  </si>
-  <si>
-    <t>$60,000 to $74,999</t>
-  </si>
-  <si>
-    <t>$75,000 to $99,999</t>
-  </si>
-  <si>
-    <t>$100,000 to $124,999</t>
-  </si>
-  <si>
-    <t>$125,000 to $149,999</t>
-  </si>
-  <si>
-    <t>$150,000 to $199,999</t>
-  </si>
-  <si>
-    <t>$200,000 or more</t>
-  </si>
-  <si>
-    <t>median</t>
-  </si>
-  <si>
-    <t>below</t>
-  </si>
-  <si>
-    <t>above</t>
-  </si>
-  <si>
-    <t>levels</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>middle</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>Table Name</t>
-  </si>
-  <si>
-    <t>Universe</t>
-  </si>
-  <si>
-    <t>Place of Birth by Nativity and Citizenship Status</t>
-  </si>
-  <si>
-    <t>Total Population</t>
-  </si>
-  <si>
-    <t>Population 25 years and over</t>
-  </si>
-  <si>
-    <t>Sex by Age</t>
-  </si>
-  <si>
-    <t>Household Income in the Paste 12 months (in 2020 Inflation-adjusted dollars)</t>
-  </si>
-  <si>
-    <t>Households</t>
-  </si>
-  <si>
-    <t>Table Names and Descriptions</t>
-  </si>
-  <si>
-    <t>Source: 2016-2020 5-year American Community Survey</t>
-  </si>
-  <si>
-    <t>Place of Birth</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Household Income</t>
-  </si>
-  <si>
-    <t>Variable Description</t>
-  </si>
-  <si>
-    <t>Educational Attainment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explanation of color formatting in the categories sheet and variable </t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
     <t>Name of the variable of categorical variable</t>
-  </si>
-  <si>
-    <t>Name of the associated table to the particular census variable being pulled</t>
-  </si>
-  <si>
-    <t>Naming convention for different groupings of the populations for each categorical variable</t>
   </si>
   <si>
     <r>
@@ -657,6 +198,9 @@
     </r>
   </si>
   <si>
+    <t>Name of the associated table to the particular census variable being pulled</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -680,6 +224,32 @@
     </r>
   </si>
   <si>
+    <t>Naming convention for different groupings of the populations for each categorical variable</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>foreign_born</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is a group made to detail the place of birth for the foreign-born populations to emphasize international diversity as opposed to native/foreign-born divisions</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t>Name of each sub-group within the defined group form</t>
     </r>
@@ -694,18 +264,6 @@
       </rPr>
       <t xml:space="preserve"> group_name</t>
     </r>
-  </si>
-  <si>
-    <t>Documentation for the Diversity Map Categories Sheet</t>
-  </si>
-  <si>
-    <t>Place of Birth for the Foreign-Born Population in the United Sates</t>
-  </si>
-  <si>
-    <t>Foreign born population excluding population born at sea</t>
-  </si>
-  <si>
-    <t>Sex by Educational Attainment for the population 25 Years and Over</t>
   </si>
   <si>
     <r>
@@ -758,9 +316,6 @@
   </si>
   <si>
     <t>*Note: Some entries might have a colon after them, which simply means that the variable of interest is a summary variable and has sub-categories that are not going to be used</t>
-  </si>
-  <si>
-    <t>Categories Sheet Descriptions</t>
   </si>
   <si>
     <r>
@@ -841,27 +396,571 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>foreign_born</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is a group made to detail the place of birth for the foreign-born populations to emphasize international diversity as opposed to native/foreign-born divisions</t>
-    </r>
+    <t>total</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>nat_for</t>
+  </si>
+  <si>
+    <t>native</t>
+  </si>
+  <si>
+    <t>Native:</t>
+  </si>
+  <si>
+    <t>foreign-born</t>
+  </si>
+  <si>
+    <t>Foreign born:</t>
+  </si>
+  <si>
+    <t>us_regions</t>
+  </si>
+  <si>
+    <t>born in MA</t>
+  </si>
+  <si>
+    <t>Born in state of residence</t>
+  </si>
+  <si>
+    <t>Northeast</t>
+  </si>
+  <si>
+    <t>Midwest</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Born outside the United States:</t>
+  </si>
+  <si>
+    <t>continent</t>
+  </si>
+  <si>
+    <t>born in North America</t>
+  </si>
+  <si>
+    <t>Northern America</t>
+  </si>
+  <si>
+    <t>Oceania</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Latin America</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Western Europe</t>
+  </si>
+  <si>
+    <t>Western Europe:</t>
+  </si>
+  <si>
+    <t>Southern Europe</t>
+  </si>
+  <si>
+    <t>Southern Europe:</t>
+  </si>
+  <si>
+    <t>Eastern Europe</t>
+  </si>
+  <si>
+    <t>Eastern Europe:</t>
+  </si>
+  <si>
+    <t>Eastern Asia</t>
+  </si>
+  <si>
+    <t>Eastern Asia:</t>
+  </si>
+  <si>
+    <t>South Central Asia</t>
+  </si>
+  <si>
+    <t>South Central Asia:</t>
+  </si>
+  <si>
+    <t>South Eastern Asia</t>
+  </si>
+  <si>
+    <t>South Eastern Asia:</t>
+  </si>
+  <si>
+    <t>Western Asia</t>
+  </si>
+  <si>
+    <t>Western Asia:</t>
+  </si>
+  <si>
+    <t>Eastern Africa</t>
+  </si>
+  <si>
+    <t>Eastern Africa:</t>
+  </si>
+  <si>
+    <t>Middle Africa</t>
+  </si>
+  <si>
+    <t>Middle Africa:</t>
+  </si>
+  <si>
+    <t>Northern Africa</t>
+  </si>
+  <si>
+    <t>Northern Africa:</t>
+  </si>
+  <si>
+    <t>Southern Africa</t>
+  </si>
+  <si>
+    <t>Southern Africa:</t>
+  </si>
+  <si>
+    <t>Western Africa</t>
+  </si>
+  <si>
+    <t>Western Africa:</t>
+  </si>
+  <si>
+    <t>Oceania:</t>
+  </si>
+  <si>
+    <t>Caribbean</t>
+  </si>
+  <si>
+    <t>Caribbean:</t>
+  </si>
+  <si>
+    <t>Central America</t>
+  </si>
+  <si>
+    <t>Central America:</t>
+  </si>
+  <si>
+    <t>South America</t>
+  </si>
+  <si>
+    <t>South America:</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>Northern America:</t>
+  </si>
+  <si>
+    <t>Other (native born)</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>Less than High School</t>
+  </si>
+  <si>
+    <t>No schooling completed</t>
+  </si>
+  <si>
+    <t>Nursery to 4th grade</t>
+  </si>
+  <si>
+    <t>5th and 6th grade</t>
+  </si>
+  <si>
+    <t>7th and 8th grade</t>
+  </si>
+  <si>
+    <t>9th grade</t>
+  </si>
+  <si>
+    <t>10th grade</t>
+  </si>
+  <si>
+    <t>11th grade</t>
+  </si>
+  <si>
+    <t>12th grade, no diploma</t>
+  </si>
+  <si>
+    <t>High School/GED</t>
+  </si>
+  <si>
+    <t>High school graduate (includes equivalency)</t>
+  </si>
+  <si>
+    <t>Some College/Associates</t>
+  </si>
+  <si>
+    <t>Some college, less than 1 year</t>
+  </si>
+  <si>
+    <t>Some college, 1 or more years, no degree</t>
+  </si>
+  <si>
+    <t>Associate's degree</t>
+  </si>
+  <si>
+    <t>Bachelor's</t>
+  </si>
+  <si>
+    <t>Bachelor's degree</t>
+  </si>
+  <si>
+    <t>Masters or Higher</t>
+  </si>
+  <si>
+    <t>Master's degree</t>
+  </si>
+  <si>
+    <t>Professional school degree</t>
+  </si>
+  <si>
+    <t>Doctorate degree</t>
+  </si>
+  <si>
+    <t>hs</t>
+  </si>
+  <si>
+    <t>In High School</t>
+  </si>
+  <si>
+    <t>High School or Higher</t>
+  </si>
+  <si>
+    <t>higher_ed</t>
+  </si>
+  <si>
+    <t>Less than bach</t>
+  </si>
+  <si>
+    <t>Bachelor's or Higher</t>
+  </si>
+  <si>
+    <t>Under 5</t>
+  </si>
+  <si>
+    <t>Under 5 years</t>
+  </si>
+  <si>
+    <t>5 to 9</t>
+  </si>
+  <si>
+    <t>5 to 9 years</t>
+  </si>
+  <si>
+    <t>10 to 14</t>
+  </si>
+  <si>
+    <t>10 to 14 years</t>
+  </si>
+  <si>
+    <t>15 to 19</t>
+  </si>
+  <si>
+    <t>15 to 17 years</t>
+  </si>
+  <si>
+    <t>18 and 19 years</t>
+  </si>
+  <si>
+    <t>20 to 24</t>
+  </si>
+  <si>
+    <t>20 years</t>
+  </si>
+  <si>
+    <t>21 years</t>
+  </si>
+  <si>
+    <t>22 to 24 years</t>
+  </si>
+  <si>
+    <t>25 to 29</t>
+  </si>
+  <si>
+    <t>25 to 29 years</t>
+  </si>
+  <si>
+    <t>30 to 34</t>
+  </si>
+  <si>
+    <t>30 to 34 years</t>
+  </si>
+  <si>
+    <t>35 to 39</t>
+  </si>
+  <si>
+    <t>35 to 39 years</t>
+  </si>
+  <si>
+    <t>40 to 44</t>
+  </si>
+  <si>
+    <t>40 to 44 years</t>
+  </si>
+  <si>
+    <t>45 to 49</t>
+  </si>
+  <si>
+    <t>45 to 49 years</t>
+  </si>
+  <si>
+    <t>50 to 54</t>
+  </si>
+  <si>
+    <t>50 to 54 years</t>
+  </si>
+  <si>
+    <t>55 to 59</t>
+  </si>
+  <si>
+    <t>55 to 59 years</t>
+  </si>
+  <si>
+    <t>60 to 64</t>
+  </si>
+  <si>
+    <t>60 and 61 years</t>
+  </si>
+  <si>
+    <t>62 to 64 years</t>
+  </si>
+  <si>
+    <t>65 to 69</t>
+  </si>
+  <si>
+    <t>65 and 66 years</t>
+  </si>
+  <si>
+    <t>67 to 69 years</t>
+  </si>
+  <si>
+    <t>70 to 74</t>
+  </si>
+  <si>
+    <t>70 to 74 years</t>
+  </si>
+  <si>
+    <t>75 to 79</t>
+  </si>
+  <si>
+    <t>75 to 79 years</t>
+  </si>
+  <si>
+    <t>80 to 84</t>
+  </si>
+  <si>
+    <t>80 to 84 years</t>
+  </si>
+  <si>
+    <t>85 and over</t>
+  </si>
+  <si>
+    <t>85 years and over</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>young adult</t>
+  </si>
+  <si>
+    <t>adult</t>
+  </si>
+  <si>
+    <t>senior citizen</t>
+  </si>
+  <si>
+    <t>gens</t>
+  </si>
+  <si>
+    <t>genZ</t>
+  </si>
+  <si>
+    <t>millenial</t>
+  </si>
+  <si>
+    <t>genX</t>
+  </si>
+  <si>
+    <t>boomers</t>
+  </si>
+  <si>
+    <t>silent</t>
+  </si>
+  <si>
+    <t>Less than $10,000</t>
+  </si>
+  <si>
+    <t>$10,000 to $14,999</t>
+  </si>
+  <si>
+    <t>$15,000 to $19,999</t>
+  </si>
+  <si>
+    <t>$20,000 to $24,999</t>
+  </si>
+  <si>
+    <t>$25,000 to $29,999</t>
+  </si>
+  <si>
+    <t>$30,000 to $34,999</t>
+  </si>
+  <si>
+    <t>$35,000 to $39,999</t>
+  </si>
+  <si>
+    <t>$40,000 to $44,999</t>
+  </si>
+  <si>
+    <t>$45,000 to $49,999</t>
+  </si>
+  <si>
+    <t>$50,000 to $59,999</t>
+  </si>
+  <si>
+    <t>$60,000 to $74,999</t>
+  </si>
+  <si>
+    <t>$75,000 to $99,999</t>
+  </si>
+  <si>
+    <t>$100,000 to $124,999</t>
+  </si>
+  <si>
+    <t>$125,000 to $149,999</t>
+  </si>
+  <si>
+    <t>$150,000 to $199,999</t>
+  </si>
+  <si>
+    <t>$200,000 or more</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>below</t>
+  </si>
+  <si>
+    <t>above</t>
+  </si>
+  <si>
+    <t>levels</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>middle</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>basic</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Not Hispanic or Latino:!!White alone</t>
+  </si>
+  <si>
+    <t>Black or African American</t>
+  </si>
+  <si>
+    <t>Not Hispanic or Latino:!!Black or African American alone</t>
+  </si>
+  <si>
+    <t>American Indian and Alaska Native</t>
+  </si>
+  <si>
+    <t>Not Hispanic or Latino:!!American Indian and Alaska Native alone</t>
+  </si>
+  <si>
+    <t>AAPI</t>
+  </si>
+  <si>
+    <t>Not Hispanic or Latino:!!Asian alone</t>
+  </si>
+  <si>
+    <t>Not Hispanic or Latino:!!Native Hawaiian and Other Pacific Islander alone</t>
+  </si>
+  <si>
+    <t>Not Hispanic or Latino:!!Some other race alone</t>
+  </si>
+  <si>
+    <t>Two or more</t>
+  </si>
+  <si>
+    <t>Not Hispanic or Latino:!!Two or more races:</t>
+  </si>
+  <si>
+    <t>Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>multiracial</t>
+  </si>
+  <si>
+    <t>not multiracial</t>
+  </si>
+  <si>
+    <t>Population of one race:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population of two or more races: </t>
+  </si>
+  <si>
+    <t>hispanic</t>
+  </si>
+  <si>
+    <t>Hispanic/Latino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Hispanic or Latino: </t>
+  </si>
+  <si>
+    <t>Not Hispanic/Latino</t>
+  </si>
+  <si>
+    <t>Not Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>Hispanic/Latino and White alone</t>
+  </si>
+  <si>
+    <t>Hispanic/Latino and Black</t>
+  </si>
+  <si>
+    <t>Hispanic/Latino and Indigenous alone</t>
+  </si>
+  <si>
+    <t>Hispanic/Latino and AAPI alone</t>
   </si>
   <si>
     <t>Cities</t>
@@ -940,6 +1039,54 @@
   </si>
   <si>
     <t>Seattle city, Washington</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>Not White</t>
+  </si>
+  <si>
+    <t>non-hisp White</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>non-hisp black</t>
+  </si>
+  <si>
+    <t>not black</t>
+  </si>
+  <si>
+    <t>aapi</t>
+  </si>
+  <si>
+    <t>non-hisp aapi</t>
+  </si>
+  <si>
+    <t>not aapi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!!Hispanic or Latino: </t>
+  </si>
+  <si>
+    <t>!!Hispanic or Latino:!!White alone</t>
+  </si>
+  <si>
+    <t>!!Hispanic or Latino:!!Black or African American alone</t>
+  </si>
+  <si>
+    <t>!!Hispanic or Latino:!!American Indian and Alaska Native alone</t>
+  </si>
+  <si>
+    <t>!!Hispanic or Latino:!!Asian alone</t>
+  </si>
+  <si>
+    <t>ethnicity_det</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1228,11 +1375,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1327,8 +1485,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1337,9 +1502,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1644,16 +1808,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" customWidth="1"/>
     <col min="4" max="4" width="70.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="52.85546875" bestFit="1" customWidth="1"/>
@@ -1661,300 +1825,332 @@
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
-        <v>204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>189</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>190</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>179</v>
+        <v>4</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>194</v>
+        <v>5</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>181</v>
+        <v>6</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>182</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>191</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>10</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>184</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
+        <v>13</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="16" t="s">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>206</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>195</v>
+        <v>18</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>185</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>192</v>
+        <v>23</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>186</v>
+        <v>24</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>184</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>193</v>
+        <v>27</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>187</v>
+        <v>28</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>188</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>196</v>
-      </c>
+      <c r="A12" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="22" t="s">
+      <c r="A15" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="19"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="27" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="19"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="13" t="s">
-        <v>201</v>
-      </c>
+      <c r="B20" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
-        <v>1</v>
+      <c r="A21" s="44" t="s">
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>199</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="13" t="s">
-        <v>202</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
-        <v>2</v>
+      <c r="A23" s="41" t="s">
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>200</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="13" t="s">
-        <v>216</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
-        <v>3</v>
+      <c r="A25" s="41" t="s">
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>203</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="13" t="s">
-        <v>208</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="41"/>
+      <c r="B28" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="41"/>
+      <c r="B30" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="41"/>
+      <c r="B31" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B27" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
-      <c r="B28" s="13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="13" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="B31" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
-        <v>3</v>
+      <c r="B33" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="28" t="s">
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>215</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A27:A29"/>
+  <mergeCells count="9">
+    <mergeCell ref="A29:A31"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1963,16 +2159,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E205"/>
+  <dimension ref="A1:E247"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D219" sqref="D219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
@@ -1981,3487 +2177,4201 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="D134" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E134" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>165</v>
+        <v>209</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>165</v>
+        <v>209</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>165</v>
+        <v>209</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>171</v>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E206" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E207" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E208" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D209" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E210" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D211" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D212" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D213" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D214" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E216" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D217" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E217" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D218" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D219" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E219" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D220" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="E220" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D221" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D223" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E223" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D224" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E224" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D225" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D226" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="E226" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D227" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D228" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="E228" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D229" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="E229" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D230" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="E230" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D231" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="E231" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D232" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E232" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D233" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E233" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D234" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E234" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E235" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D236" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E236" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E237" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D238" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E238" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D239" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="E239" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D240" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E240" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D241" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="E241" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D242" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="E242" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D243" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="E243" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D244" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="E244" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D245" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="E245" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D246" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="E246" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D247" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="E247" s="4" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -5474,140 +6384,140 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>217</v>
+      <c r="A1" s="38" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>227</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>229</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>231</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
